--- a/_site/_projects/project2/zanudo2015_SFAexploration/sfa_fixednodes/DAC/hamming.xlsx
+++ b/_site/_projects/project2/zanudo2015_SFAexploration/sfa_fixednodes/DAC/hamming.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/GoogleDrive/My Drive/ALS_IPS/zanudo2015/sfa_fixednodes/DAC/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Maddie/Documents/GitHub/CancerReversion/_projects/project2/zanudo2015_SFAexploration/sfa_fixednodes/DAC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32127E34-A87F-6240-9289-05F2B1563C42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B9A554D-D92A-2240-8257-503F19392BCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17640" yWindow="460" windowWidth="14880" windowHeight="18860" xr2:uid="{7BE45EB5-F7C4-F944-A239-D0F0777DD1BE}"/>
+    <workbookView xWindow="7420" yWindow="460" windowWidth="21480" windowHeight="18860" xr2:uid="{7BE45EB5-F7C4-F944-A239-D0F0777DD1BE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,24 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>L1</t>
   </si>
   <si>
-    <t>L1 no 0</t>
-  </si>
-  <si>
     <t>L2</t>
   </si>
   <si>
-    <t>L2 no 0</t>
-  </si>
-  <si>
     <t>Hamming ratio</t>
   </si>
   <si>
     <t>count</t>
+  </si>
+  <si>
+    <t>number of comparisons with said ratio</t>
+  </si>
+  <si>
+    <t>L1 in RONs with non-zero DAC</t>
+  </si>
+  <si>
+    <t>L2 in RONs with non-zero DAC</t>
   </si>
 </sst>
 </file>
@@ -394,41 +397,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6AED8A4B-7CB7-FE4B-A87F-84291E1BB67A}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A13" sqref="A13:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="3" max="4" width="15.5" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>0.42105300000000001</v>
       </c>
@@ -439,18 +443,18 @@
         <f>B3/B5*100</f>
         <v>97.620764239365528</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.42105300000000001</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1171</v>
       </c>
-      <c r="F3">
-        <f>E3/E5*100</f>
+      <c r="G3">
+        <f>F3/F5*100</f>
         <v>94.359387590652702</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>0.47368399999999999</v>
       </c>
@@ -461,50 +465,50 @@
         <f>B4/B5*100</f>
         <v>2.3792357606344625</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.47368399999999999</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>70</v>
       </c>
-      <c r="F4">
-        <f>E4/E5*100</f>
+      <c r="G4">
+        <f>F4/F5*100</f>
         <v>5.6406124093473009</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B5">
         <f>SUM(B3:B4)</f>
         <v>1387</v>
       </c>
-      <c r="E5">
-        <f>SUM(E3:E4)</f>
+      <c r="F5">
+        <f>SUM(F3:F4)</f>
         <v>1241</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
       <c r="E8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>0</v>
       </c>
@@ -515,18 +519,18 @@
         <f>B9/B11*100</f>
         <v>97.620764239365528</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>1171</v>
       </c>
-      <c r="F9">
-        <f>E9/E11*100</f>
+      <c r="G9">
+        <f>F9/F11*100</f>
         <v>94.359387590652702</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9.0909000000000004E-2</v>
       </c>
@@ -537,45 +541,25 @@
         <f>B10/B11*100</f>
         <v>2.3792357606344625</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>9.0909000000000004E-2</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>70</v>
       </c>
-      <c r="F10">
-        <f>E10/E11*100</f>
+      <c r="G10">
+        <f>F10/F11*100</f>
         <v>5.6406124093473009</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11">
         <f>SUM(B9:B10)</f>
         <v>1387</v>
       </c>
-      <c r="E11">
-        <f>SUM(E9:E10)</f>
+      <c r="F11">
+        <f>SUM(F9:F10)</f>
         <v>1241</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <f>(1-A3)*100</f>
-        <v>57.8947</v>
-      </c>
-      <c r="D14">
-        <f>(1-D9)*100</f>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <f>(1-A4)*100</f>
-        <v>52.631599999999999</v>
-      </c>
-      <c r="D15">
-        <f>(1-D10)*100</f>
-        <v>90.909099999999995</v>
       </c>
     </row>
   </sheetData>
